--- a/output/1Y_P97_KFSDIV.xlsx
+++ b/output/1Y_P97_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.4938</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.5481</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E3" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="F3" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="H3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0052</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>10.3262</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E4" s="1">
-        <v>1900.9817</v>
+        <v>1897.1858</v>
       </c>
       <c r="F4" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="H4" s="1">
-        <v>19629.917</v>
+        <v>19551.4487</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19629.917</v>
+        <v>19551.4487</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5209</v>
+        <v>10.5419</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9785.5877</v>
+        <v>-9786.0159</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.021</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.462</v>
       </c>
       <c r="C5" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D5" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E5" s="1">
-        <v>2869.3921</v>
+        <v>2863.6589</v>
       </c>
       <c r="F5" s="1">
-        <v>958.1173</v>
+        <v>956.1935</v>
       </c>
       <c r="H5" s="1">
-        <v>30019.5805</v>
+        <v>29899.7489</v>
       </c>
       <c r="I5" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="J5" s="1">
-        <v>30233.9928</v>
+        <v>30113.733</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4552</v>
+        <v>10.4761</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10023.8236</v>
+        <v>-10023.776</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0204</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.5775</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E6" s="1">
-        <v>3827.5095</v>
+        <v>3819.8523</v>
       </c>
       <c r="F6" s="1">
-        <v>947.6553</v>
+        <v>945.7551999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>40485.4814</v>
+        <v>40323.5074</v>
       </c>
       <c r="I6" s="1">
-        <v>190.5887</v>
+        <v>190.2081</v>
       </c>
       <c r="J6" s="1">
-        <v>40676.0701</v>
+        <v>40513.7154</v>
       </c>
       <c r="K6" s="1">
-        <v>40023.8236</v>
+        <v>40023.776</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4569</v>
+        <v>10.4778</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10023.8236</v>
+        <v>-10023.776</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>10.7066</v>
       </c>
       <c r="C7" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D7" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E7" s="1">
-        <v>4775.1647</v>
+        <v>4765.6076</v>
       </c>
       <c r="F7" s="1">
-        <v>936.2285000000001</v>
+        <v>934.3477</v>
       </c>
       <c r="H7" s="1">
-        <v>51125.7787</v>
+        <v>50921.4702</v>
       </c>
       <c r="I7" s="1">
-        <v>166.7651</v>
+        <v>166.4321</v>
       </c>
       <c r="J7" s="1">
-        <v>51292.5439</v>
+        <v>51087.9022</v>
       </c>
       <c r="K7" s="1">
-        <v>50047.6472</v>
+        <v>50047.552</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4808</v>
+        <v>10.5018</v>
       </c>
       <c r="M7" s="1">
         <v>0.2</v>
       </c>
       <c r="N7" s="1">
-        <v>688.9517</v>
+        <v>687.5734</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9334.8719</v>
+        <v>-9336.202600000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0122</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.1511</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E8" s="1">
-        <v>5711.3932</v>
+        <v>5699.9553</v>
       </c>
       <c r="F8" s="1">
-        <v>909.2062</v>
+        <v>907.3586</v>
       </c>
       <c r="H8" s="1">
-        <v>63688.3166</v>
+        <v>63433.6628</v>
       </c>
       <c r="I8" s="1">
-        <v>831.8933</v>
+        <v>830.2295</v>
       </c>
       <c r="J8" s="1">
-        <v>64520.2099</v>
+        <v>64263.8923</v>
       </c>
       <c r="K8" s="1">
-        <v>60071.4708</v>
+        <v>60071.328</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5178</v>
+        <v>10.5389</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10138.6489</v>
+        <v>-10138.3716</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0527</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.5294</v>
       </c>
       <c r="C9" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D9" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E9" s="1">
-        <v>6620.5994</v>
+        <v>6607.3139</v>
       </c>
       <c r="F9" s="1">
-        <v>879.3659</v>
+        <v>877.5911</v>
       </c>
       <c r="H9" s="1">
-        <v>76331.5382</v>
+        <v>76025.7365</v>
       </c>
       <c r="I9" s="1">
-        <v>693.2444</v>
+        <v>691.8579</v>
       </c>
       <c r="J9" s="1">
-        <v>77024.78260000001</v>
+        <v>76717.5944</v>
       </c>
       <c r="K9" s="1">
-        <v>70210.11960000001</v>
+        <v>70209.69960000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.6048</v>
+        <v>10.6261</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10138.6489</v>
+        <v>-10138.3716</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0336</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>10.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E10" s="1">
-        <v>7499.9652</v>
+        <v>7484.9051</v>
       </c>
       <c r="F10" s="1">
-        <v>928.9922</v>
+        <v>927.1064</v>
       </c>
       <c r="H10" s="1">
-        <v>81851.62059999999</v>
+        <v>81524.0892</v>
       </c>
       <c r="I10" s="1">
-        <v>554.5955</v>
+        <v>553.4863</v>
       </c>
       <c r="J10" s="1">
-        <v>82406.21610000001</v>
+        <v>82077.57550000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80348.76850000001</v>
+        <v>80348.07120000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7132</v>
+        <v>10.7347</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2979.2697</v>
+        <v>2973.2913</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7159.3792</v>
+        <v>-7165.0803</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0531</v>
+        <v>-0.0535</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.2587</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E11" s="1">
-        <v>8428.957399999999</v>
+        <v>8412.011399999999</v>
       </c>
       <c r="F11" s="1">
-        <v>988.7233</v>
+        <v>986.5413</v>
       </c>
       <c r="H11" s="1">
-        <v>94898.2598</v>
+        <v>94519.04300000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3395.2163</v>
+        <v>3388.406</v>
       </c>
       <c r="J11" s="1">
-        <v>98293.4761</v>
+        <v>97907.44899999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90487.41740000001</v>
+        <v>90486.4428</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7353</v>
+        <v>10.7568</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11131.7388</v>
+        <v>-11129.4687</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.6434</v>
       </c>
       <c r="C12" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D12" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E12" s="1">
-        <v>9417.680700000001</v>
+        <v>9398.552799999999</v>
       </c>
       <c r="F12" s="1">
-        <v>956.0557</v>
+        <v>953.9517</v>
       </c>
       <c r="H12" s="1">
-        <v>109653.8232</v>
+        <v>109212.123</v>
       </c>
       <c r="I12" s="1">
-        <v>2263.4776</v>
+        <v>2258.9373</v>
       </c>
       <c r="J12" s="1">
-        <v>111917.3007</v>
+        <v>111471.0604</v>
       </c>
       <c r="K12" s="1">
-        <v>101619.1562</v>
+        <v>101615.9115</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7903</v>
+        <v>10.8119</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11131.7388</v>
+        <v>-11129.4687</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0335</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>11.3141</v>
       </c>
       <c r="C13" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D13" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E13" s="1">
-        <v>10373.7364</v>
+        <v>10352.5045</v>
       </c>
       <c r="F13" s="1">
-        <v>983.8819999999999</v>
+        <v>981.7117</v>
       </c>
       <c r="H13" s="1">
-        <v>117369.4906</v>
+        <v>116895.3046</v>
       </c>
       <c r="I13" s="1">
-        <v>1131.7388</v>
+        <v>1129.4687</v>
       </c>
       <c r="J13" s="1">
-        <v>118501.2294</v>
+        <v>118024.7733</v>
       </c>
       <c r="K13" s="1">
-        <v>112750.895</v>
+        <v>112745.3801</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8689</v>
+        <v>10.8906</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>3390.365</v>
+        <v>3383.479</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7741.3737</v>
+        <v>-7745.9897</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.028</v>
+        <v>-0.0284</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.003</v>
       </c>
       <c r="C14" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D14" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E14" s="1">
-        <v>11357.6183</v>
+        <v>11334.2162</v>
       </c>
       <c r="F14" s="1">
-        <v>-11357.6183</v>
+        <v>-11334.2162</v>
       </c>
       <c r="H14" s="1">
-        <v>124967.8743</v>
+        <v>124461.0276</v>
       </c>
       <c r="I14" s="1">
-        <v>3390.365</v>
+        <v>3383.479</v>
       </c>
       <c r="J14" s="1">
-        <v>128358.2393</v>
+        <v>127844.5066</v>
       </c>
       <c r="K14" s="1">
-        <v>123882.6337</v>
+        <v>123874.8488</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9074</v>
+        <v>10.9293</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124967.8743</v>
+        <v>124461.0276</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0011</v>
+        <v>-0.0014</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.4938</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.5481</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E3" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="F3" s="1">
-        <v>943.1324</v>
+        <v>948.8361</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9948.2552</v>
+        <v>-10028.4382</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0052</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>10.3262</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E4" s="1">
-        <v>1896.0761</v>
+        <v>1899.8765</v>
       </c>
       <c r="F4" s="1">
-        <v>973.4215</v>
+        <v>963.7246</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19579.2607</v>
+        <v>19579.1774</v>
       </c>
       <c r="I4" s="1">
-        <v>51.7448</v>
+        <v>-28.4382</v>
       </c>
       <c r="J4" s="1">
-        <v>19631.0056</v>
+        <v>19550.7392</v>
       </c>
       <c r="K4" s="1">
-        <v>19948.2552</v>
+        <v>20028.4382</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5208</v>
+        <v>10.542</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9837.3325</v>
+        <v>-9757.5777</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.021</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.462</v>
       </c>
       <c r="C5" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D5" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E5" s="1">
-        <v>2869.4975</v>
+        <v>2863.6011</v>
       </c>
       <c r="F5" s="1">
-        <v>953.8632</v>
+        <v>967.4129</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30020.6833</v>
+        <v>29899.1453</v>
       </c>
       <c r="I5" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="J5" s="1">
-        <v>30235.0956</v>
+        <v>30113.1294</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4548</v>
+        <v>10.4763</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9979.316699999999</v>
+        <v>-10141.3893</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0204</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.5775</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E6" s="1">
-        <v>3823.3607</v>
+        <v>3831.014</v>
       </c>
       <c r="F6" s="1">
-        <v>903.6541999999999</v>
+        <v>905.4941</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40441.5982</v>
+        <v>40441.3328</v>
       </c>
       <c r="I6" s="1">
-        <v>235.0956</v>
+        <v>72.59480000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>40676.6938</v>
+        <v>40513.9276</v>
       </c>
       <c r="K6" s="1">
-        <v>39979.3167</v>
+        <v>40141.3893</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4566</v>
+        <v>10.478</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9558.4018</v>
+        <v>-9597.060100000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>10.7066</v>
       </c>
       <c r="C7" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D7" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E7" s="1">
-        <v>4727.0149</v>
+        <v>4736.5081</v>
       </c>
       <c r="F7" s="1">
-        <v>877.0051</v>
+        <v>878.7355</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50610.2576</v>
+        <v>50610.5359</v>
       </c>
       <c r="I7" s="1">
-        <v>676.6938</v>
+        <v>475.5346</v>
       </c>
       <c r="J7" s="1">
-        <v>51286.9514</v>
+        <v>51086.0705</v>
       </c>
       <c r="K7" s="1">
-        <v>49537.7185</v>
+        <v>49738.4495</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4797</v>
+        <v>10.5011</v>
       </c>
       <c r="M7" s="1">
         <v>0.2</v>
       </c>
       <c r="N7" s="1">
-        <v>688.2049</v>
+        <v>689.5825</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8701.537399999999</v>
+        <v>-8737.579299999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.012</v>
+        <v>0.0113</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.1511</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E8" s="1">
-        <v>5604.02</v>
+        <v>5615.2435</v>
       </c>
       <c r="F8" s="1">
-        <v>673.3877</v>
+        <v>674.7428</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>62490.9869</v>
+        <v>62490.922</v>
       </c>
       <c r="I8" s="1">
-        <v>1975.1564</v>
+        <v>1737.9553</v>
       </c>
       <c r="J8" s="1">
-        <v>64466.1432</v>
+        <v>64228.8773</v>
       </c>
       <c r="K8" s="1">
-        <v>58927.4609</v>
+        <v>59165.6113</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5152</v>
+        <v>10.5366</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7509.0131</v>
+        <v>-7539.239</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0519</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.5294</v>
       </c>
       <c r="C9" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D9" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E9" s="1">
-        <v>6277.4076</v>
+        <v>6289.9863</v>
       </c>
       <c r="F9" s="1">
-        <v>661.375</v>
+        <v>662.7265</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>72374.7433</v>
+        <v>72374.46980000001</v>
       </c>
       <c r="I9" s="1">
-        <v>4466.1432</v>
+        <v>4198.7163</v>
       </c>
       <c r="J9" s="1">
-        <v>76840.88649999999</v>
+        <v>76573.18610000001</v>
       </c>
       <c r="K9" s="1">
-        <v>66436.474</v>
+        <v>66704.85030000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.5834</v>
+        <v>10.6049</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7625.3228</v>
+        <v>-7656.1481</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0319</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>10.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E10" s="1">
-        <v>6938.7826</v>
+        <v>6952.7129</v>
       </c>
       <c r="F10" s="1">
-        <v>1307.8088</v>
+        <v>1310.3841</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>75727.0977</v>
+        <v>75727.5579</v>
       </c>
       <c r="I10" s="1">
-        <v>6840.8204</v>
+        <v>6542.5682</v>
       </c>
       <c r="J10" s="1">
-        <v>82567.9181</v>
+        <v>82270.12609999999</v>
       </c>
       <c r="K10" s="1">
-        <v>74061.7969</v>
+        <v>74360.9984</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6736</v>
+        <v>10.6952</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2824.8334</v>
+        <v>2830.4939</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11448.0689</v>
+        <v>-11499.212</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0492</v>
+        <v>-0.0497</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.2587</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E11" s="1">
-        <v>8246.591399999999</v>
+        <v>8263.097</v>
       </c>
       <c r="F11" s="1">
-        <v>635.5076</v>
+        <v>636.7089999999999</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>92845.07399999999</v>
+        <v>92845.8106</v>
       </c>
       <c r="I11" s="1">
-        <v>5392.7515</v>
+        <v>5043.3562</v>
       </c>
       <c r="J11" s="1">
-        <v>98237.82550000001</v>
+        <v>97889.16680000001</v>
       </c>
       <c r="K11" s="1">
-        <v>88334.6992</v>
+        <v>88690.7043</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7117</v>
+        <v>10.7333</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7154.9895</v>
+        <v>-7182.905</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0613</v>
+        <v>0.0609</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.6434</v>
       </c>
       <c r="C12" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D12" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E12" s="1">
-        <v>8882.099</v>
+        <v>8899.806</v>
       </c>
       <c r="F12" s="1">
-        <v>565.3133</v>
+        <v>566.5497</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>103417.8317</v>
+        <v>103416.6355</v>
       </c>
       <c r="I12" s="1">
-        <v>8237.762000000001</v>
+        <v>7860.4512</v>
       </c>
       <c r="J12" s="1">
-        <v>111655.5937</v>
+        <v>111277.0867</v>
       </c>
       <c r="K12" s="1">
-        <v>95489.6887</v>
+        <v>95873.60920000001</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7508</v>
+        <v>10.7726</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6582.1683</v>
+        <v>-6609.7657</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0316</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>11.3141</v>
       </c>
       <c r="C13" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D13" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E13" s="1">
-        <v>9447.4123</v>
+        <v>9466.3557</v>
       </c>
       <c r="F13" s="1">
-        <v>1158.8224</v>
+        <v>1161.1074</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>106888.9671</v>
+        <v>106889.3555</v>
       </c>
       <c r="I13" s="1">
-        <v>11655.5937</v>
+        <v>11250.6855</v>
       </c>
       <c r="J13" s="1">
-        <v>118544.5608</v>
+        <v>118140.041</v>
       </c>
       <c r="K13" s="1">
-        <v>102071.857</v>
+        <v>102483.3749</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8042</v>
+        <v>10.8261</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>3197.5556</v>
+        <v>3203.9302</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9913.477199999999</v>
+        <v>-9959.3125</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0256</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.003</v>
       </c>
       <c r="C14" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D14" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E14" s="1">
-        <v>10606.2347</v>
+        <v>10627.4631</v>
       </c>
       <c r="F14" s="1">
-        <v>-10606.2347</v>
+        <v>-10627.4631</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116700.4004</v>
+        <v>116700.1727</v>
       </c>
       <c r="I14" s="1">
-        <v>11742.1165</v>
+        <v>11291.373</v>
       </c>
       <c r="J14" s="1">
-        <v>128442.5169</v>
+        <v>127991.5457</v>
       </c>
       <c r="K14" s="1">
-        <v>115182.8898</v>
+        <v>115646.6176</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8599</v>
+        <v>10.8819</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116700.4004</v>
+        <v>116700.1727</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0008</v>
+        <v>-0.0012</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.4938</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.5481</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E3" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="F3" s="1">
-        <v>947.8726</v>
+        <v>946.1454</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9998.2552</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0052</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>10.3262</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E4" s="1">
-        <v>1900.8163</v>
+        <v>1897.1858</v>
       </c>
       <c r="F4" s="1">
-        <v>968.5794</v>
+        <v>966.473</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19628.2089</v>
+        <v>19551.4487</v>
       </c>
       <c r="I4" s="1">
-        <v>1.7448</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19629.9537</v>
+        <v>19551.4487</v>
       </c>
       <c r="K4" s="1">
-        <v>19998.2552</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5209</v>
+        <v>10.5419</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9787.3325</v>
+        <v>-9786.0159</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.021</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.462</v>
       </c>
       <c r="C5" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D5" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E5" s="1">
-        <v>2869.3957</v>
+        <v>2863.6589</v>
       </c>
       <c r="F5" s="1">
-        <v>976.3346</v>
+        <v>974.3379</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30019.6176</v>
+        <v>29899.7489</v>
       </c>
       <c r="I5" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="J5" s="1">
-        <v>30234.03</v>
+        <v>30113.733</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4552</v>
+        <v>10.4761</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10214.4123</v>
+        <v>-10213.9841</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0204</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.5775</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E6" s="1">
-        <v>3845.7303</v>
+        <v>3837.9968</v>
       </c>
       <c r="F6" s="1">
-        <v>928.7917</v>
+        <v>946.1138</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40678.2118</v>
+        <v>40515.0454</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40678.2118</v>
+        <v>40515.0454</v>
       </c>
       <c r="K6" s="1">
-        <v>40214.4123</v>
+        <v>40213.9841</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4569</v>
+        <v>10.4779</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9824.294400000001</v>
+        <v>-10027.5761</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>10.7066</v>
       </c>
       <c r="C7" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D7" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E7" s="1">
-        <v>4774.522</v>
+        <v>4784.1106</v>
       </c>
       <c r="F7" s="1">
-        <v>900.0170000000001</v>
+        <v>901.7932</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51118.897</v>
+        <v>51119.1781</v>
       </c>
       <c r="I7" s="1">
-        <v>175.7056</v>
+        <v>-27.5761</v>
       </c>
       <c r="J7" s="1">
-        <v>51294.6026</v>
+        <v>51091.6021</v>
       </c>
       <c r="K7" s="1">
-        <v>50038.7068</v>
+        <v>50241.5602</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4804</v>
+        <v>10.5018</v>
       </c>
       <c r="M7" s="1">
         <v>0.2</v>
       </c>
       <c r="N7" s="1">
-        <v>692.2314</v>
+        <v>690.8394</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8943.890299999999</v>
+        <v>-8983.688200000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0122</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.1511</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E8" s="1">
-        <v>5674.539</v>
+        <v>5685.9038</v>
       </c>
       <c r="F8" s="1">
-        <v>697.8184</v>
+        <v>699.2226000000001</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>63277.3514</v>
+        <v>63277.2857</v>
       </c>
       <c r="I8" s="1">
-        <v>1231.8153</v>
+        <v>988.7358</v>
       </c>
       <c r="J8" s="1">
-        <v>64509.1666</v>
+        <v>64266.0214</v>
       </c>
       <c r="K8" s="1">
-        <v>59674.8285</v>
+        <v>59916.0878</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5162</v>
+        <v>10.5377</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7781.4425</v>
+        <v>-7812.7634</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0524</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.5294</v>
       </c>
       <c r="C9" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D9" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E9" s="1">
-        <v>6372.3573</v>
+        <v>6385.1263</v>
       </c>
       <c r="F9" s="1">
-        <v>689.0759</v>
+        <v>690.4834</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73469.4567</v>
+        <v>73469.17909999999</v>
       </c>
       <c r="I9" s="1">
-        <v>3450.3727</v>
+        <v>3175.9723</v>
       </c>
       <c r="J9" s="1">
-        <v>76919.8294</v>
+        <v>76645.1514</v>
       </c>
       <c r="K9" s="1">
-        <v>67456.27099999999</v>
+        <v>67728.8512</v>
       </c>
       <c r="L9" s="1">
-        <v>10.5858</v>
+        <v>10.6073</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7944.7001</v>
+        <v>-7976.8091</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0324</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>10.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E10" s="1">
-        <v>7061.4332</v>
+        <v>7075.6097</v>
       </c>
       <c r="F10" s="1">
-        <v>1352.0288</v>
+        <v>1354.6918</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>77065.65730000001</v>
+        <v>77066.1257</v>
       </c>
       <c r="I10" s="1">
-        <v>5505.6726</v>
+        <v>5199.1632</v>
       </c>
       <c r="J10" s="1">
-        <v>82571.3299</v>
+        <v>82265.2889</v>
       </c>
       <c r="K10" s="1">
-        <v>75400.9711</v>
+        <v>75705.6603</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6779</v>
+        <v>10.6995</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2867.5608</v>
+        <v>2873.3068</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11887.9402</v>
+        <v>-11940.9258</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.05</v>
+        <v>-0.0505</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.2587</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E11" s="1">
-        <v>8413.4619</v>
+        <v>8430.3015</v>
       </c>
       <c r="F11" s="1">
-        <v>671.1724</v>
+        <v>672.4435</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>94723.8027</v>
+        <v>94724.55409999999</v>
       </c>
       <c r="I11" s="1">
-        <v>3617.7324</v>
+        <v>3258.2374</v>
       </c>
       <c r="J11" s="1">
-        <v>98341.53509999999</v>
+        <v>97982.7916</v>
       </c>
       <c r="K11" s="1">
-        <v>90156.4721</v>
+        <v>90519.89290000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7157</v>
+        <v>10.7374</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7556.5285</v>
+        <v>-7586.0371</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0623</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.6434</v>
       </c>
       <c r="C12" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D12" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E12" s="1">
-        <v>9084.6343</v>
+        <v>9102.7451</v>
       </c>
       <c r="F12" s="1">
-        <v>602.5417</v>
+        <v>603.8552</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>105776.0314</v>
+        <v>105774.8079</v>
       </c>
       <c r="I12" s="1">
-        <v>6061.2039</v>
+        <v>5672.2003</v>
       </c>
       <c r="J12" s="1">
-        <v>111837.2353</v>
+        <v>111447.0082</v>
       </c>
       <c r="K12" s="1">
-        <v>97713.0007</v>
+        <v>98105.9301</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7559</v>
+        <v>10.7776</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7015.634</v>
+        <v>-7044.9971</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0323</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>11.3141</v>
       </c>
       <c r="C13" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D13" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E13" s="1">
-        <v>9687.175999999999</v>
+        <v>9706.600200000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1215.6464</v>
+        <v>1218.0443</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109601.6783</v>
+        <v>109602.0766</v>
       </c>
       <c r="I13" s="1">
-        <v>9045.5699</v>
+        <v>8627.203100000001</v>
       </c>
       <c r="J13" s="1">
-        <v>118647.2482</v>
+        <v>118229.2797</v>
       </c>
       <c r="K13" s="1">
-        <v>104728.6347</v>
+        <v>105150.9272</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8111</v>
+        <v>10.8329</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>3270.4684</v>
+        <v>3276.9882</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10483.477</v>
+        <v>-10531.7363</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0262</v>
+        <v>-0.0265</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.003</v>
       </c>
       <c r="C14" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D14" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E14" s="1">
-        <v>10902.8225</v>
+        <v>10924.6445</v>
       </c>
       <c r="F14" s="1">
-        <v>-10902.8225</v>
+        <v>-10924.6445</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119963.7557</v>
+        <v>119963.5216</v>
       </c>
       <c r="I14" s="1">
-        <v>8562.0928</v>
+        <v>8095.4668</v>
       </c>
       <c r="J14" s="1">
-        <v>128525.8485</v>
+        <v>128058.9884</v>
       </c>
       <c r="K14" s="1">
-        <v>118482.5801</v>
+        <v>118959.6518</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8671</v>
+        <v>10.8891</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119963.7557</v>
+        <v>119963.5216</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0009</v>
+        <v>-0.0013</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.4938</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.5481</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E3" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="F3" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0052</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>10.3262</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E4" s="1">
-        <v>1900.9817</v>
+        <v>1897.1858</v>
       </c>
       <c r="F4" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19629.917</v>
+        <v>19551.4487</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19629.917</v>
+        <v>19551.4487</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5209</v>
+        <v>10.5419</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9785.5877</v>
+        <v>-9786.0159</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.021</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.462</v>
       </c>
       <c r="C5" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D5" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E5" s="1">
-        <v>2869.3921</v>
+        <v>2863.6589</v>
       </c>
       <c r="F5" s="1">
-        <v>976.3346</v>
+        <v>974.3379</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30019.5805</v>
+        <v>29899.7489</v>
       </c>
       <c r="I5" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="J5" s="1">
-        <v>30233.9928</v>
+        <v>30113.733</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4552</v>
+        <v>10.4761</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10214.4123</v>
+        <v>-10213.9841</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0204</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.5775</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E6" s="1">
-        <v>3845.7267</v>
+        <v>3837.9968</v>
       </c>
       <c r="F6" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40678.1742</v>
+        <v>40515.0454</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40678.1742</v>
+        <v>40515.0454</v>
       </c>
       <c r="K6" s="1">
-        <v>40214.4123</v>
+        <v>40213.9841</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4569</v>
+        <v>10.4779</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>10.7066</v>
       </c>
       <c r="C7" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D7" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E7" s="1">
-        <v>4791.1297</v>
+        <v>4781.5087</v>
       </c>
       <c r="F7" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51296.7091</v>
+        <v>51091.377</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51296.7091</v>
+        <v>51091.377</v>
       </c>
       <c r="K7" s="1">
-        <v>50214.4123</v>
+        <v>50213.9841</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4807</v>
+        <v>10.5017</v>
       </c>
       <c r="M7" s="1">
         <v>0.2</v>
       </c>
       <c r="N7" s="1">
-        <v>692.2308</v>
+        <v>690.8394</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9307.769200000001</v>
+        <v>-9309.160599999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0122</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.1511</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E8" s="1">
-        <v>5725.133</v>
+        <v>5713.6402</v>
       </c>
       <c r="F8" s="1">
-        <v>743.7671</v>
+        <v>768.2223</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>63841.5307</v>
+        <v>63585.9594</v>
       </c>
       <c r="I8" s="1">
-        <v>692.2308</v>
+        <v>690.8394</v>
       </c>
       <c r="J8" s="1">
-        <v>64533.7615</v>
+        <v>64276.7988</v>
       </c>
       <c r="K8" s="1">
-        <v>60214.4123</v>
+        <v>60213.9841</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5176</v>
+        <v>10.5386</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8293.821400000001</v>
+        <v>-8583.7323</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0528</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.5294</v>
       </c>
       <c r="C9" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D9" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E9" s="1">
-        <v>6468.9001</v>
+        <v>6481.8626</v>
       </c>
       <c r="F9" s="1">
-        <v>717.6582</v>
+        <v>719.1235</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>74582.537</v>
+        <v>74582.2552</v>
       </c>
       <c r="I9" s="1">
-        <v>2398.4094</v>
+        <v>2107.1071</v>
       </c>
       <c r="J9" s="1">
-        <v>76980.9464</v>
+        <v>76689.3624</v>
       </c>
       <c r="K9" s="1">
-        <v>68508.2338</v>
+        <v>68797.7164</v>
       </c>
       <c r="L9" s="1">
-        <v>10.5904</v>
+        <v>10.6139</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8274.240400000001</v>
+        <v>-8307.6739</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0328</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>10.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E10" s="1">
-        <v>7186.5583</v>
+        <v>7200.986</v>
       </c>
       <c r="F10" s="1">
-        <v>1294.1806</v>
+        <v>1261.8932</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>78431.223</v>
+        <v>78431.6997</v>
       </c>
       <c r="I10" s="1">
-        <v>4124.169</v>
+        <v>3799.4332</v>
       </c>
       <c r="J10" s="1">
-        <v>82555.39200000001</v>
+        <v>82231.1329</v>
       </c>
       <c r="K10" s="1">
-        <v>76782.47410000001</v>
+        <v>77105.3903</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6842</v>
+        <v>10.7076</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2911.0051</v>
+        <v>2916.8382</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11213.1639</v>
+        <v>-10882.5951</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0509</v>
+        <v>-0.0514</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.2587</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E11" s="1">
-        <v>8480.7389</v>
+        <v>8462.879199999999</v>
       </c>
       <c r="F11" s="1">
-        <v>811.9019</v>
+        <v>848.2868999999999</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>95481.2469</v>
+        <v>95090.6038</v>
       </c>
       <c r="I11" s="1">
-        <v>2911.0051</v>
+        <v>2916.8382</v>
       </c>
       <c r="J11" s="1">
-        <v>98392.25199999999</v>
+        <v>98007.442</v>
       </c>
       <c r="K11" s="1">
-        <v>90906.6431</v>
+        <v>90904.8235</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7192</v>
+        <v>10.7416</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9140.959699999999</v>
+        <v>-9569.7793</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0631</v>
+        <v>0.0626</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.6434</v>
       </c>
       <c r="C12" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D12" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E12" s="1">
-        <v>9292.640799999999</v>
+        <v>9311.1662</v>
       </c>
       <c r="F12" s="1">
-        <v>641.6007</v>
+        <v>642.9949</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>108197.9336</v>
+        <v>108196.6821</v>
       </c>
       <c r="I12" s="1">
-        <v>3770.0454</v>
+        <v>3347.0588</v>
       </c>
       <c r="J12" s="1">
-        <v>111967.979</v>
+        <v>111543.7409</v>
       </c>
       <c r="K12" s="1">
-        <v>100047.6028</v>
+        <v>100474.6029</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7663</v>
+        <v>10.7908</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7470.4131</v>
+        <v>-7501.6281</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.033</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>11.3141</v>
       </c>
       <c r="C13" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D13" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E13" s="1">
-        <v>9934.241400000001</v>
+        <v>9954.161</v>
       </c>
       <c r="F13" s="1">
-        <v>1275.2255</v>
+        <v>1277.7417</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112397.001</v>
+        <v>112397.4093</v>
       </c>
       <c r="I13" s="1">
-        <v>6299.6323</v>
+        <v>5845.4307</v>
       </c>
       <c r="J13" s="1">
-        <v>118696.6333</v>
+        <v>118242.84</v>
       </c>
       <c r="K13" s="1">
-        <v>107518.0159</v>
+        <v>107976.231</v>
       </c>
       <c r="L13" s="1">
-        <v>10.823</v>
+        <v>10.8473</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>3345.3507</v>
+        <v>3352.0198</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11082.6785</v>
+        <v>-11133.4827</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0268</v>
+        <v>-0.0272</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.003</v>
       </c>
       <c r="C14" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D14" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E14" s="1">
-        <v>11209.467</v>
+        <v>11231.9028</v>
       </c>
       <c r="F14" s="1">
-        <v>-11209.467</v>
+        <v>-11231.9028</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123337.765</v>
+        <v>123337.5243</v>
       </c>
       <c r="I14" s="1">
-        <v>5216.9538</v>
+        <v>4711.948</v>
       </c>
       <c r="J14" s="1">
-        <v>128554.7188</v>
+        <v>128049.4724</v>
       </c>
       <c r="K14" s="1">
-        <v>121946.0451</v>
+        <v>122461.7335</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8788</v>
+        <v>10.903</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123337.765</v>
+        <v>123337.5243</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0011</v>
+        <v>-0.0015</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.4938</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.5481</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E3" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="F3" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10051.7448</v>
+        <v>10011.6027</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0052</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>10.3262</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E4" s="1">
-        <v>1900.9817</v>
+        <v>1897.1858</v>
       </c>
       <c r="F4" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19629.917</v>
+        <v>19551.4487</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19629.917</v>
+        <v>19551.4487</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5209</v>
+        <v>10.5419</v>
       </c>
       <c r="M4" s="1">
         <v>0.25</v>
       </c>
       <c r="N4" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9785.5877</v>
+        <v>-9786.0159</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.021</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.462</v>
       </c>
       <c r="C5" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D5" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E5" s="1">
-        <v>2869.3921</v>
+        <v>2863.6589</v>
       </c>
       <c r="F5" s="1">
-        <v>976.3346</v>
+        <v>974.3379</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30019.5805</v>
+        <v>29899.7489</v>
       </c>
       <c r="I5" s="1">
-        <v>214.4123</v>
+        <v>213.9841</v>
       </c>
       <c r="J5" s="1">
-        <v>30233.9928</v>
+        <v>30113.733</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4552</v>
+        <v>10.4761</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10214.4123</v>
+        <v>-10213.9841</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0204</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.5775</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E6" s="1">
-        <v>3845.7267</v>
+        <v>3837.9968</v>
       </c>
       <c r="F6" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40678.1742</v>
+        <v>40515.0454</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40678.1742</v>
+        <v>40515.0454</v>
       </c>
       <c r="K6" s="1">
-        <v>40214.4123</v>
+        <v>40213.9841</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4569</v>
+        <v>10.4779</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>10.7066</v>
       </c>
       <c r="C7" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D7" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E7" s="1">
-        <v>4791.1297</v>
+        <v>4781.5087</v>
       </c>
       <c r="F7" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51296.7091</v>
+        <v>51091.377</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51296.7091</v>
+        <v>51091.377</v>
       </c>
       <c r="K7" s="1">
-        <v>50214.4123</v>
+        <v>50213.9841</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4807</v>
+        <v>10.5017</v>
       </c>
       <c r="M7" s="1">
         <v>0.2</v>
       </c>
       <c r="N7" s="1">
-        <v>692.2308</v>
+        <v>690.8394</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9307.769200000001</v>
+        <v>-9309.160599999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0122</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.1511</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E8" s="1">
-        <v>5725.133</v>
+        <v>5713.6402</v>
       </c>
       <c r="F8" s="1">
-        <v>841.9269</v>
+        <v>866.5788</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63841.5307</v>
+        <v>63585.9594</v>
       </c>
       <c r="I8" s="1">
-        <v>692.2308</v>
+        <v>690.8394</v>
       </c>
       <c r="J8" s="1">
-        <v>64533.7615</v>
+        <v>64276.7988</v>
       </c>
       <c r="K8" s="1">
-        <v>60214.4123</v>
+        <v>60213.9841</v>
       </c>
       <c r="L8" s="1">
-        <v>10.5176</v>
+        <v>10.5386</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9388.4113</v>
+        <v>-9682.718699999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0528</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.5294</v>
       </c>
       <c r="C9" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D9" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E9" s="1">
-        <v>6567.0599</v>
+        <v>6580.2191</v>
       </c>
       <c r="F9" s="1">
-        <v>747.1446999999999</v>
+        <v>748.6695</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>75714.2607</v>
+        <v>75713.9746</v>
       </c>
       <c r="I9" s="1">
-        <v>1303.8195</v>
+        <v>1008.1208</v>
       </c>
       <c r="J9" s="1">
-        <v>77018.0803</v>
+        <v>76722.09540000001</v>
       </c>
       <c r="K9" s="1">
-        <v>69602.8236</v>
+        <v>69896.7028</v>
       </c>
       <c r="L9" s="1">
-        <v>10.5988</v>
+        <v>10.6222</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8614.205099999999</v>
+        <v>-8649.004999999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0333</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>10.9136</v>
       </c>
       <c r="C10" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D10" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E10" s="1">
-        <v>7314.2046</v>
+        <v>7328.8886</v>
       </c>
       <c r="F10" s="1">
-        <v>1162.7341</v>
+        <v>1130.183</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79824.30379999999</v>
+        <v>79824.789</v>
       </c>
       <c r="I10" s="1">
-        <v>2689.6145</v>
+        <v>2359.1158</v>
       </c>
       <c r="J10" s="1">
-        <v>82513.9183</v>
+        <v>82183.9048</v>
       </c>
       <c r="K10" s="1">
-        <v>78217.0287</v>
+        <v>78545.7077</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6939</v>
+        <v>10.7173</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2955.177</v>
+        <v>2961.0986</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9734.4375</v>
+        <v>-9398.0172</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0518</v>
+        <v>-0.0523</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.2587</v>
       </c>
       <c r="C11" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D11" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E11" s="1">
-        <v>8476.938700000001</v>
+        <v>8459.071599999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1029.3247</v>
+        <v>1066.1431</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>95438.46219999999</v>
+        <v>95047.8201</v>
       </c>
       <c r="I11" s="1">
-        <v>2955.177</v>
+        <v>2961.0986</v>
       </c>
       <c r="J11" s="1">
-        <v>98393.6391</v>
+        <v>98008.9186</v>
       </c>
       <c r="K11" s="1">
-        <v>90906.6431</v>
+        <v>90904.8235</v>
       </c>
       <c r="L11" s="1">
-        <v>10.724</v>
+        <v>10.7464</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11588.8574</v>
+        <v>-12027.4797</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0636</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.6434</v>
       </c>
       <c r="C12" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D12" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E12" s="1">
-        <v>9506.2634</v>
+        <v>9525.214599999999</v>
       </c>
       <c r="F12" s="1">
-        <v>682.5667999999999</v>
+        <v>684.0456</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>110685.2268</v>
+        <v>110683.9466</v>
       </c>
       <c r="I12" s="1">
-        <v>1366.3195</v>
+        <v>933.6189000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>112051.5463</v>
+        <v>111617.5655</v>
       </c>
       <c r="K12" s="1">
-        <v>102495.5006</v>
+        <v>102932.3032</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7819</v>
+        <v>10.8063</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7947.3981</v>
+        <v>-7980.5549</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0337</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>11.3141</v>
       </c>
       <c r="C13" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D13" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E13" s="1">
-        <v>10188.8301</v>
+        <v>10209.2602</v>
       </c>
       <c r="F13" s="1">
-        <v>1186.0352</v>
+        <v>1142.5679</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115277.4432</v>
+        <v>115277.862</v>
       </c>
       <c r="I13" s="1">
-        <v>3418.9214</v>
+        <v>2953.064</v>
       </c>
       <c r="J13" s="1">
-        <v>118696.3646</v>
+        <v>118230.9261</v>
       </c>
       <c r="K13" s="1">
-        <v>110442.8987</v>
+        <v>110912.8581</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8396</v>
+        <v>10.8639</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>3422.2548</v>
+        <v>3429.0773</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9996.6666</v>
+        <v>-9523.986800000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0275</v>
+        <v>-0.0278</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.003</v>
       </c>
       <c r="C14" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D14" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E14" s="1">
-        <v>11374.8654</v>
+        <v>11351.8282</v>
       </c>
       <c r="F14" s="1">
-        <v>-11374.8654</v>
+        <v>-11351.8282</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125157.644</v>
+        <v>124654.4251</v>
       </c>
       <c r="I14" s="1">
-        <v>3422.2548</v>
+        <v>3429.0773</v>
       </c>
       <c r="J14" s="1">
-        <v>128579.8988</v>
+        <v>128083.5024</v>
       </c>
       <c r="K14" s="1">
-        <v>123861.8201</v>
+        <v>123865.9221</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8891</v>
+        <v>10.9115</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125157.644</v>
+        <v>124654.4251</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0009</v>
+        <v>-0.0011</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9074</v>
+        <v>10.9293</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8599</v>
+        <v>10.8819</v>
       </c>
       <c r="E3" s="1">
-        <v>10.8671</v>
+        <v>10.8891</v>
       </c>
       <c r="F3" s="1">
-        <v>10.8788</v>
+        <v>10.903</v>
       </c>
       <c r="G3" s="1">
-        <v>10.8891</v>
+        <v>10.9115</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0526</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1289</v>
+        <v>0.1166</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1286</v>
+        <v>0.1171</v>
       </c>
       <c r="E4" s="3">
-        <v>0.13</v>
+        <v>0.1183</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1307</v>
+        <v>0.1185</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1311</v>
+        <v>0.1189</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1007</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1116</v>
+        <v>0.112</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1063</v>
+        <v>0.107</v>
       </c>
       <c r="E5" s="3">
-        <v>0.108</v>
+        <v>0.1087</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1094</v>
+        <v>0.11</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1106</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.3204</v>
       </c>
       <c r="C6" s="4">
-        <v>0.9731</v>
+        <v>0.8595</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0187</v>
+        <v>0.9038</v>
       </c>
       <c r="E6" s="4">
-        <v>1.0154</v>
+        <v>0.9014</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0083</v>
+        <v>0.8924</v>
       </c>
       <c r="G6" s="4">
-        <v>1.001</v>
+        <v>0.8867</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1333</v>
+        <v>0.1249</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1418</v>
+        <v>0.1335</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1406</v>
+        <v>0.1323</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1388</v>
+        <v>0.1301</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1374</v>
+        <v>0.1291</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7272.9988</v>
+        <v>7258.3278</v>
       </c>
       <c r="D8" s="1">
-        <v>6925.0063</v>
+        <v>6937.9906</v>
       </c>
       <c r="E8" s="1">
-        <v>7044.6729</v>
+        <v>7055.1186</v>
       </c>
       <c r="F8" s="1">
-        <v>7162.9989</v>
+        <v>7173.6815</v>
       </c>
       <c r="G8" s="1">
-        <v>7284.0749</v>
+        <v>7294.9994</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P97_KFSDIV.xlsx
+++ b/output/1Y_P97_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4938</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.5481</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3262</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.462</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5775</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.7066</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.1511</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.5294</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9136</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2587</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.6434</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.3141</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.003</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4938</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.5481</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3262</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.462</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5775</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.7066</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.1511</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.5294</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9136</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2587</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.6434</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.3141</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.003</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4938</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.5481</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3262</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.462</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5775</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.7066</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.1511</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.5294</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9136</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2587</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.6434</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.3141</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.003</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4938</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.5481</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3262</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.462</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5775</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.7066</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.1511</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.5294</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9136</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2587</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.6434</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.3141</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.003</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4938</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.5481</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3262</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.462</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5775</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.7066</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>11.1511</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.5294</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.9136</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.2587</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.6434</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.3141</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.003</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8264.5273</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0346</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1143</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0842</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0538</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
